--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H2">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I2">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J2">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N2">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O2">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P2">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q2">
-        <v>0.1441689547640886</v>
+        <v>0.2346361774526667</v>
       </c>
       <c r="R2">
-        <v>0.1441689547640886</v>
+        <v>1.407817064716</v>
       </c>
       <c r="S2">
-        <v>0.004500989819578768</v>
+        <v>0.002617098797072892</v>
       </c>
       <c r="T2">
-        <v>0.004500989819578768</v>
+        <v>0.002059543699331359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H3">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I3">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J3">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P3">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q3">
-        <v>12.08107751694445</v>
+        <v>20.630287306035</v>
       </c>
       <c r="R3">
-        <v>12.08107751694445</v>
+        <v>185.672585754315</v>
       </c>
       <c r="S3">
-        <v>0.377174177355233</v>
+        <v>0.2301073120012966</v>
       </c>
       <c r="T3">
-        <v>0.377174177355233</v>
+        <v>0.2716267714839803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H4">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I4">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J4">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N4">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O4">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P4">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q4">
-        <v>0.102579347157689</v>
+        <v>0.1668233132842222</v>
       </c>
       <c r="R4">
-        <v>0.102579347157689</v>
+        <v>1.501409819558</v>
       </c>
       <c r="S4">
-        <v>0.003202552158412419</v>
+        <v>0.001860723684044531</v>
       </c>
       <c r="T4">
-        <v>0.003202552158412419</v>
+        <v>0.00219646373913553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H5">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I5">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J5">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N5">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O5">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P5">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q5">
-        <v>0.07315626437759869</v>
+        <v>0.1169992474262222</v>
       </c>
       <c r="R5">
-        <v>0.07315626437759869</v>
+        <v>1.052993226836</v>
       </c>
       <c r="S5">
-        <v>0.002283956360374506</v>
+        <v>0.001304993087689428</v>
       </c>
       <c r="T5">
-        <v>0.002283956360374506</v>
+        <v>0.001540459779982971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H6">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I6">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J6">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N6">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O6">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P6">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q6">
-        <v>0.2350563506906799</v>
+        <v>0.4237159311241111</v>
       </c>
       <c r="R6">
-        <v>0.2350563506906799</v>
+        <v>3.813443380117</v>
       </c>
       <c r="S6">
-        <v>0.007338516417888488</v>
+        <v>0.00472606767500392</v>
       </c>
       <c r="T6">
-        <v>0.007338516417888488</v>
+        <v>0.005578816653896175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.258901400101952</v>
+        <v>0.4117623333333333</v>
       </c>
       <c r="H7">
-        <v>0.258901400101952</v>
+        <v>1.235287</v>
       </c>
       <c r="I7">
-        <v>0.5582578267846999</v>
+        <v>0.3411854503160894</v>
       </c>
       <c r="J7">
-        <v>0.5582578267846999</v>
+        <v>0.362145714686097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.2596004811042</v>
+        <v>21.8974465</v>
       </c>
       <c r="N7">
-        <v>20.2596004811042</v>
+        <v>43.794893</v>
       </c>
       <c r="O7">
-        <v>0.293336925729065</v>
+        <v>0.2947641963565862</v>
       </c>
       <c r="P7">
-        <v>0.293336925729065</v>
+        <v>0.2185409246064703</v>
       </c>
       <c r="Q7">
-        <v>5.245238930064058</v>
+        <v>9.016543664881834</v>
       </c>
       <c r="R7">
-        <v>5.245238930064058</v>
+        <v>54.099261989291</v>
       </c>
       <c r="S7">
-        <v>0.1637576346732127</v>
+        <v>0.1005692550709821</v>
       </c>
       <c r="T7">
-        <v>0.1637576346732127</v>
+        <v>0.07914365932977065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H8">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I8">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J8">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.55684888033559</v>
+        <v>0.569834</v>
       </c>
       <c r="N8">
-        <v>0.55684888033559</v>
+        <v>1.139668</v>
       </c>
       <c r="O8">
-        <v>0.008062564649567625</v>
+        <v>0.007670604929513537</v>
       </c>
       <c r="P8">
-        <v>0.008062564649567625</v>
+        <v>0.005687058042690201</v>
       </c>
       <c r="Q8">
-        <v>0.114079022867382</v>
+        <v>0.333662879696</v>
       </c>
       <c r="R8">
-        <v>0.114079022867382</v>
+        <v>2.001977278176</v>
       </c>
       <c r="S8">
-        <v>0.003561574829988857</v>
+        <v>0.003721628653179179</v>
       </c>
       <c r="T8">
-        <v>0.003561574829988857</v>
+        <v>0.002928760982382106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H9">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I9">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J9">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.6628512328905</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
-        <v>46.6628512328905</v>
+        <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6756272088966082</v>
+        <v>0.6744347151618419</v>
       </c>
       <c r="P9">
-        <v>0.6756272088966082</v>
+        <v>0.7500482829664925</v>
       </c>
       <c r="Q9">
-        <v>9.559599849866011</v>
+        <v>29.33716848876</v>
       </c>
       <c r="R9">
-        <v>9.559599849866011</v>
+        <v>264.03451639884</v>
       </c>
       <c r="S9">
-        <v>0.2984530315413753</v>
+        <v>0.3272226354648447</v>
       </c>
       <c r="T9">
-        <v>0.2984530315413753</v>
+        <v>0.3862651180215184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H10">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I10">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J10">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.396210090471873</v>
+        <v>0.4051446666666667</v>
       </c>
       <c r="N10">
-        <v>0.396210090471873</v>
+        <v>1.215434</v>
       </c>
       <c r="O10">
-        <v>0.00573669011835911</v>
+        <v>0.005453701739979455</v>
       </c>
       <c r="P10">
-        <v>0.00573669011835911</v>
+        <v>0.006065138009542361</v>
       </c>
       <c r="Q10">
-        <v>0.08116970612204261</v>
+        <v>0.2372300286986667</v>
       </c>
       <c r="R10">
-        <v>0.08116970612204261</v>
+        <v>2.135070258288001</v>
       </c>
       <c r="S10">
-        <v>0.00253413795994669</v>
+        <v>0.002646030247667556</v>
       </c>
       <c r="T10">
-        <v>0.00253413795994669</v>
+        <v>0.003123467251744028</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H11">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I11">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J11">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.28256418987611</v>
+        <v>0.2841426666666667</v>
       </c>
       <c r="N11">
-        <v>0.28256418987611</v>
+        <v>0.8524280000000001</v>
       </c>
       <c r="O11">
-        <v>0.004091221386951277</v>
+        <v>0.00382487906937539</v>
       </c>
       <c r="P11">
-        <v>0.004091221386951277</v>
+        <v>0.004253701528176911</v>
       </c>
       <c r="Q11">
-        <v>0.05788760257352683</v>
+        <v>0.1663780336106667</v>
       </c>
       <c r="R11">
-        <v>0.05788760257352683</v>
+        <v>1.497402302496</v>
       </c>
       <c r="S11">
-        <v>0.001807265026576772</v>
+        <v>0.001855757097430844</v>
       </c>
       <c r="T11">
-        <v>0.001807265026576772</v>
+        <v>0.002190601005459497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.204865317855414</v>
+        <v>0.5855440000000001</v>
       </c>
       <c r="H12">
-        <v>0.204865317855414</v>
+        <v>1.756632</v>
       </c>
       <c r="I12">
-        <v>0.4417421732153001</v>
+        <v>0.4851805936269489</v>
       </c>
       <c r="J12">
-        <v>0.4417421732153001</v>
+        <v>0.5149870038950204</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.907899109846906</v>
+        <v>1.029030333333333</v>
       </c>
       <c r="N12">
-        <v>0.907899109846906</v>
+        <v>3.087091</v>
       </c>
       <c r="O12">
-        <v>0.01314538921944876</v>
+        <v>0.01385190274270336</v>
       </c>
       <c r="P12">
-        <v>0.01314538921944876</v>
+        <v>0.01540489484662774</v>
       </c>
       <c r="Q12">
-        <v>0.1859970397194338</v>
+        <v>0.6025425375013334</v>
       </c>
       <c r="R12">
-        <v>0.1859970397194338</v>
+        <v>5.422882837512001</v>
       </c>
       <c r="S12">
-        <v>0.005806872801560274</v>
+        <v>0.006720674395567577</v>
       </c>
       <c r="T12">
-        <v>0.005806872801560274</v>
+        <v>0.007933320642382656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5855440000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.756632</v>
+      </c>
+      <c r="I13">
+        <v>0.4851805936269489</v>
+      </c>
+      <c r="J13">
+        <v>0.5149870038950204</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.8974465</v>
+      </c>
+      <c r="N13">
+        <v>43.794893</v>
+      </c>
+      <c r="O13">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P13">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q13">
+        <v>12.821918413396</v>
+      </c>
+      <c r="R13">
+        <v>76.93151048037601</v>
+      </c>
+      <c r="S13">
+        <v>0.1430138677682591</v>
+      </c>
+      <c r="T13">
+        <v>0.1125457359915337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2095515</v>
+      </c>
+      <c r="H14">
+        <v>0.419103</v>
+      </c>
+      <c r="I14">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J14">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.569834</v>
+      </c>
+      <c r="N14">
+        <v>1.139668</v>
+      </c>
+      <c r="O14">
+        <v>0.007670604929513537</v>
+      </c>
+      <c r="P14">
+        <v>0.005687058042690201</v>
+      </c>
+      <c r="Q14">
+        <v>0.119409569451</v>
+      </c>
+      <c r="R14">
+        <v>0.477638277804</v>
+      </c>
+      <c r="S14">
+        <v>0.001331877479261467</v>
+      </c>
+      <c r="T14">
+        <v>0.000698753360976737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2095515</v>
+      </c>
+      <c r="H15">
+        <v>0.419103</v>
+      </c>
+      <c r="I15">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J15">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>50.102415</v>
+      </c>
+      <c r="N15">
+        <v>150.307245</v>
+      </c>
+      <c r="O15">
+        <v>0.6744347151618419</v>
+      </c>
+      <c r="P15">
+        <v>0.7500482829664925</v>
+      </c>
+      <c r="Q15">
+        <v>10.4990362168725</v>
+      </c>
+      <c r="R15">
+        <v>62.994217301235</v>
+      </c>
+      <c r="S15">
+        <v>0.1171047676957007</v>
+      </c>
+      <c r="T15">
+        <v>0.09215639346099377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2095515</v>
+      </c>
+      <c r="H16">
+        <v>0.419103</v>
+      </c>
+      <c r="I16">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J16">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4051446666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.215434</v>
+      </c>
+      <c r="O16">
+        <v>0.005453701739979455</v>
+      </c>
+      <c r="P16">
+        <v>0.006065138009542361</v>
+      </c>
+      <c r="Q16">
+        <v>0.08489867261700001</v>
+      </c>
+      <c r="R16">
+        <v>0.5093920357020001</v>
+      </c>
+      <c r="S16">
+        <v>0.0009469478082673682</v>
+      </c>
+      <c r="T16">
+        <v>0.0007452070186628032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.204865317855414</v>
-      </c>
-      <c r="H13">
-        <v>0.204865317855414</v>
-      </c>
-      <c r="I13">
-        <v>0.4417421732153001</v>
-      </c>
-      <c r="J13">
-        <v>0.4417421732153001</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="N13">
-        <v>20.2596004811042</v>
-      </c>
-      <c r="O13">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="P13">
-        <v>0.293336925729065</v>
-      </c>
-      <c r="Q13">
-        <v>4.150489492185111</v>
-      </c>
-      <c r="R13">
-        <v>4.150489492185111</v>
-      </c>
-      <c r="S13">
-        <v>0.1295792910558523</v>
-      </c>
-      <c r="T13">
-        <v>0.1295792910558523</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2095515</v>
+      </c>
+      <c r="H17">
+        <v>0.419103</v>
+      </c>
+      <c r="I17">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J17">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2841426666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.8524280000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.00382487906937539</v>
+      </c>
+      <c r="P17">
+        <v>0.004253701528176911</v>
+      </c>
+      <c r="Q17">
+        <v>0.05954252201400001</v>
+      </c>
+      <c r="R17">
+        <v>0.3572551320840001</v>
+      </c>
+      <c r="S17">
+        <v>0.0006641288842551189</v>
+      </c>
+      <c r="T17">
+        <v>0.0005226407427344438</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2095515</v>
+      </c>
+      <c r="H18">
+        <v>0.419103</v>
+      </c>
+      <c r="I18">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J18">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.029030333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.087091</v>
+      </c>
+      <c r="O18">
+        <v>0.01385190274270336</v>
+      </c>
+      <c r="P18">
+        <v>0.01540489484662774</v>
+      </c>
+      <c r="Q18">
+        <v>0.2156348498955</v>
+      </c>
+      <c r="R18">
+        <v>1.293809099373</v>
+      </c>
+      <c r="S18">
+        <v>0.002405160672131862</v>
+      </c>
+      <c r="T18">
+        <v>0.001892757550348905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2095515</v>
+      </c>
+      <c r="H19">
+        <v>0.419103</v>
+      </c>
+      <c r="I19">
+        <v>0.1736339560569617</v>
+      </c>
+      <c r="J19">
+        <v>0.1228672814188827</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.8974465</v>
+      </c>
+      <c r="N19">
+        <v>43.794893</v>
+      </c>
+      <c r="O19">
+        <v>0.2947641963565862</v>
+      </c>
+      <c r="P19">
+        <v>0.2185409246064703</v>
+      </c>
+      <c r="Q19">
+        <v>4.58864276024475</v>
+      </c>
+      <c r="R19">
+        <v>18.354571040979</v>
+      </c>
+      <c r="S19">
+        <v>0.05118107351734513</v>
+      </c>
+      <c r="T19">
+        <v>0.02685152928516601</v>
       </c>
     </row>
   </sheetData>
